--- a/ig/terminology/1.0.0/medcom-messaging-mapFhirToSorEdi.xlsx
+++ b/ig/terminology/1.0.0/medcom-messaging-mapFhirToSorEdi.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T19:21:39+02:00</t>
+    <t>2024-02-14T09:11:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,10 +251,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
